--- a/Result Data.xlsx
+++ b/Result Data.xlsx
@@ -42,48 +42,56 @@
     <t>IM</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>Roll No</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Vipin</t>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Bimal</t>
+  </si>
+  <si>
+    <t>Deepak</t>
+  </si>
+  <si>
+    <t>Faisal</t>
+  </si>
+  <si>
+    <t>Gurveer</t>
+  </si>
+  <si>
+    <t>Neena</t>
+  </si>
+  <si>
+    <t>Piyush</t>
+  </si>
+  <si>
+    <t>Sangharsh</t>
+  </si>
+  <si>
+    <t>Vivek</t>
+  </si>
+  <si>
+    <t>Praveen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,8 +119,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,9 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -420,35 +427,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>18</v>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -456,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -488,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -497,22 +504,22 @@
         <v>35</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F3">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J3">
-        <v>781</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -520,31 +527,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <v>45</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J4">
-        <v>599</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -552,28 +559,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E5">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>30</v>
       </c>
       <c r="H5">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J5">
         <v>600</v>
@@ -584,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -599,16 +606,16 @@
         <v>60</v>
       </c>
       <c r="G6">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H6">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J6">
-        <v>580</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -616,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -625,22 +632,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="G7">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J7">
-        <v>656</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -648,31 +655,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <v>60</v>
       </c>
       <c r="F8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I8">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J8">
-        <v>781</v>
+        <v>772</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -680,31 +687,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>15</v>
       </c>
       <c r="F9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>35</v>
       </c>
       <c r="H9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J9">
-        <v>599</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -712,7 +719,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -721,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>49</v>
@@ -730,13 +737,13 @@
         <v>50</v>
       </c>
       <c r="H10">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I10">
         <v>25</v>
       </c>
       <c r="J10">
-        <v>600</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -744,7 +751,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -759,13 +766,13 @@
         <v>67</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I11">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J11">
         <v>580</v>
@@ -773,6 +780,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
